--- a/biology/Zoologie/Histriobdellidae/Histriobdellidae.xlsx
+++ b/biology/Zoologie/Histriobdellidae/Histriobdellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Histriobdellidae sont une famille d'annélides polychètes.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Histriobdellidae a été créée en 1884 par Carl Friedrich Wilhelm Claus (1835-1899) et Gaston Moquin-Tandon (d) (1845-1929)[1],[2].
-L’ITIS attribue cette famille à Vaillant (1834-1914) en 1890[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Histriobdellidae a été créée en 1884 par Carl Friedrich Wilhelm Claus (1835-1899) et Gaston Moquin-Tandon (d) (1845-1929),.
+L’ITIS attribue cette famille à Vaillant (1834-1914) en 1890.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (27 mai 2022)[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (27 mai 2022)
 genre Histriobdella Van Beneden, 1858
 genre Histriodrilus Foettinger, 1884
 genre Steineridrilus Zhang, 2014</t>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>C. Claus, G. Moquin-Tandon, Traité de zoologie,  (publication), Inconnu, Paris, 1884, [lire en ligne]</t>
         </is>
